--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488469DB-0B72-4166-BA5B-878E34521527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB98B0-4B08-4391-91F1-463FF3AFB60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="5040" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>35</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB98B0-4B08-4391-91F1-463FF3AFB60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBC4CFB-A328-466A-99FC-AD4960406E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -697,18 +697,122 @@
         <v>35</v>
       </c>
       <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>34500</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="B12">
+        <v>36000</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>37500</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>39000</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBC4CFB-A328-466A-99FC-AD4960406E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D492E-CBC0-4A4A-95DD-40ECD997140D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D14"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -816,6 +816,162 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>40500</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>42000</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>43500</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>45000</v>
+      </c>
+      <c r="C18">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>46500</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>48000</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D492E-CBC0-4A4A-95DD-40ECD997140D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB11822-1B86-46EC-A0CE-096BE0F6F8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A20"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -518,10 +518,10 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -622,10 +622,10 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -648,10 +648,10 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -726,10 +726,10 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>18</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>19</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB11822-1B86-46EC-A0CE-096BE0F6F8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D005079A-4108-4517-BBFF-873A0360C01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5070" yWindow="1200" windowWidth="27660" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,7 +495,7 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>36</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>36</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -963,12 +963,64 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>49500</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>51000</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D005079A-4108-4517-BBFF-873A0360C01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442DD024-8E7F-4BBD-81C9-A07C5C6DD620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1200" windowWidth="27660" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-2070" yWindow="1170" windowWidth="38430" windowHeight="7830" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1024,6 +1024,266 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>52500</v>
+      </c>
+      <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>54000</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>55500</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>57000</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>58500</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>60000</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>61500</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>36</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>63000</v>
+      </c>
+      <c r="C30">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>36</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>64500</v>
+      </c>
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>66000</v>
+      </c>
+      <c r="C32">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>19</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442DD024-8E7F-4BBD-81C9-A07C5C6DD620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D0EF8-A538-4782-A8A4-88ED5EED3C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2070" yWindow="1170" windowWidth="38430" windowHeight="7830" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X11" sqref="X11"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>36</v>
@@ -541,7 +541,7 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>36</v>
@@ -567,7 +567,7 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>36</v>
@@ -593,7 +593,7 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>36</v>
@@ -619,7 +619,7 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>36</v>
@@ -645,7 +645,7 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>36</v>
@@ -671,7 +671,7 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>36</v>
@@ -697,7 +697,7 @@
         <v>35</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>36</v>
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>36</v>
@@ -749,7 +749,7 @@
         <v>35</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>36</v>
@@ -775,7 +775,7 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>36</v>
@@ -801,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>36</v>
@@ -827,13 +827,13 @@
         <v>35</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>36</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -853,13 +853,13 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>36</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>35</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>36</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>35</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>36</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -931,13 +931,13 @@
         <v>35</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>36</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -957,13 +957,13 @@
         <v>35</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>36</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>35</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>36</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>35</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>36</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <v>36</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>35</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>36</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>35</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>36</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>35</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E26">
         <v>36</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>35</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>36</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1165,13 +1165,13 @@
         <v>35</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>36</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1191,13 +1191,13 @@
         <v>35</v>
       </c>
       <c r="D29">
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <v>36</v>
+      </c>
+      <c r="F29">
         <v>31</v>
-      </c>
-      <c r="E29">
-        <v>36</v>
-      </c>
-      <c r="F29">
-        <v>16</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         <v>35</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>36</v>
       </c>
       <c r="F30">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1243,13 +1243,13 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>36</v>
       </c>
       <c r="F31">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1269,18 +1269,96 @@
         <v>35</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>36</v>
       </c>
       <c r="F32">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>67500</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>66</v>
+      </c>
+      <c r="E33">
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <v>39</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>69000</v>
+      </c>
+      <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>68</v>
+      </c>
+      <c r="E34">
+        <v>36</v>
+      </c>
+      <c r="F34">
+        <v>41</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>70500</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <v>43</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D0EF8-A538-4782-A8A4-88ED5EED3C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EED742-6932-404D-980F-DEA0CA3C2F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1362,6 +1362,188 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>72000</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>72</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+      <c r="F36">
+        <v>45</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>73500</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>74</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>47</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>75000</v>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>76</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <v>49</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>76500</v>
+      </c>
+      <c r="C39">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>78</v>
+      </c>
+      <c r="E39">
+        <v>36</v>
+      </c>
+      <c r="F39">
+        <v>51</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>78000</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <v>80</v>
+      </c>
+      <c r="E40">
+        <v>36</v>
+      </c>
+      <c r="F40">
+        <v>53</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>79500</v>
+      </c>
+      <c r="C41">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>82</v>
+      </c>
+      <c r="E41">
+        <v>36</v>
+      </c>
+      <c r="F41">
+        <v>55</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>81000</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>84</v>
+      </c>
+      <c r="E42">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <v>57</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EED742-6932-404D-980F-DEA0CA3C2F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D129801F-2A08-4C7C-9060-5627F621C77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>36</v>
@@ -515,7 +515,7 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>36</v>
@@ -541,7 +541,7 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>36</v>
@@ -567,7 +567,7 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>36</v>
@@ -593,7 +593,7 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>36</v>
@@ -619,7 +619,7 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>36</v>
@@ -645,7 +645,7 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>36</v>
@@ -671,7 +671,7 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>36</v>
@@ -697,7 +697,7 @@
         <v>35</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>36</v>
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>36</v>
@@ -749,7 +749,7 @@
         <v>35</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>36</v>
@@ -775,7 +775,7 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>36</v>
@@ -801,13 +801,13 @@
         <v>35</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>36</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>35</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>36</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -853,13 +853,13 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>36</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>35</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>36</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>35</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>36</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -931,13 +931,13 @@
         <v>35</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <v>36</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -957,13 +957,13 @@
         <v>35</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>36</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>35</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <v>36</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>35</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E22">
         <v>36</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E23">
         <v>36</v>
       </c>
       <c r="F23">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>35</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>36</v>
       </c>
       <c r="F24">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>35</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>36</v>
       </c>
       <c r="F25">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>35</v>
       </c>
       <c r="D26">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E26">
         <v>36</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>35</v>
       </c>
       <c r="D27">
+        <v>108</v>
+      </c>
+      <c r="E27">
+        <v>36</v>
+      </c>
+      <c r="F27">
         <v>54</v>
-      </c>
-      <c r="E27">
-        <v>36</v>
-      </c>
-      <c r="F27">
-        <v>27</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1165,13 +1165,13 @@
         <v>35</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="E28">
         <v>36</v>
       </c>
       <c r="F28">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1191,13 +1191,13 @@
         <v>35</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="E29">
         <v>36</v>
       </c>
       <c r="F29">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         <v>35</v>
       </c>
       <c r="D30">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="E30">
         <v>36</v>
       </c>
       <c r="F30">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1243,13 +1243,13 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="E31">
         <v>36</v>
       </c>
       <c r="F31">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>35</v>
       </c>
       <c r="D32">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="E32">
         <v>36</v>
       </c>
       <c r="F32">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>35</v>
       </c>
       <c r="D33">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="E33">
         <v>36</v>
       </c>
       <c r="F33">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>35</v>
       </c>
       <c r="D34">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="E34">
         <v>36</v>
       </c>
       <c r="F34">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>35</v>
       </c>
       <c r="D35">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="E35">
         <v>36</v>
       </c>
       <c r="F35">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>35</v>
       </c>
       <c r="D36">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="E36">
         <v>36</v>
       </c>
       <c r="F36">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1399,13 +1399,13 @@
         <v>35</v>
       </c>
       <c r="D37">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1425,13 +1425,13 @@
         <v>35</v>
       </c>
       <c r="D38">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="E38">
         <v>36</v>
       </c>
       <c r="F38">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>35</v>
       </c>
       <c r="D39">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="E39">
         <v>36</v>
       </c>
       <c r="F39">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         <v>35</v>
       </c>
       <c r="D40">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="E40">
         <v>36</v>
       </c>
       <c r="F40">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>35</v>
       </c>
       <c r="D41">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="E41">
         <v>36</v>
       </c>
       <c r="F41">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1529,18 +1529,356 @@
         <v>35</v>
       </c>
       <c r="D42">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="E42">
         <v>36</v>
       </c>
       <c r="F42">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>82500</v>
+      </c>
+      <c r="C43">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>288</v>
+      </c>
+      <c r="E43">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <v>180</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>84000</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>292</v>
+      </c>
+      <c r="E44">
+        <v>36</v>
+      </c>
+      <c r="F44">
+        <v>184</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>85500</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>296</v>
+      </c>
+      <c r="E45">
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <v>188</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>87000</v>
+      </c>
+      <c r="C46">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>300</v>
+      </c>
+      <c r="E46">
+        <v>36</v>
+      </c>
+      <c r="F46">
+        <v>192</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>88500</v>
+      </c>
+      <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <v>304</v>
+      </c>
+      <c r="E47">
+        <v>36</v>
+      </c>
+      <c r="F47">
+        <v>196</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>90000</v>
+      </c>
+      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="D48">
+        <v>308</v>
+      </c>
+      <c r="E48">
+        <v>36</v>
+      </c>
+      <c r="F48">
+        <v>200</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>91500</v>
+      </c>
+      <c r="C49">
+        <v>35</v>
+      </c>
+      <c r="D49">
+        <v>312</v>
+      </c>
+      <c r="E49">
+        <v>36</v>
+      </c>
+      <c r="F49">
+        <v>204</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>93000</v>
+      </c>
+      <c r="C50">
+        <v>35</v>
+      </c>
+      <c r="D50">
+        <v>316</v>
+      </c>
+      <c r="E50">
+        <v>36</v>
+      </c>
+      <c r="F50">
+        <v>208</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>94500</v>
+      </c>
+      <c r="C51">
+        <v>35</v>
+      </c>
+      <c r="D51">
+        <v>320</v>
+      </c>
+      <c r="E51">
+        <v>36</v>
+      </c>
+      <c r="F51">
+        <v>212</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>96000</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>324</v>
+      </c>
+      <c r="E52">
+        <v>36</v>
+      </c>
+      <c r="F52">
+        <v>216</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>97500</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <v>328</v>
+      </c>
+      <c r="E53">
+        <v>36</v>
+      </c>
+      <c r="F53">
+        <v>220</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>99000</v>
+      </c>
+      <c r="C54">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>332</v>
+      </c>
+      <c r="E54">
+        <v>36</v>
+      </c>
+      <c r="F54">
+        <v>224</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>100500</v>
+      </c>
+      <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>336</v>
+      </c>
+      <c r="E55">
+        <v>36</v>
+      </c>
+      <c r="F55">
+        <v>228</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>0</v>
       </c>
     </row>
